--- a/SampleData/DimOS.xlsx
+++ b/SampleData/DimOS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -23,124 +23,88 @@
     <t>OS_NAME</t>
   </si>
   <si>
+    <t>Symbian^3 Anna</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>BlackBerry OS</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows Mobile</t>
+  </si>
+  <si>
+    <t>Symbian OS</t>
+  </si>
+  <si>
+    <t>webOS</t>
+  </si>
+  <si>
+    <t>Windows RT</t>
+  </si>
+  <si>
     <t>Android</t>
   </si>
   <si>
+    <t>Symbian^3 Belle</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Windows 2000</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>BlackBerry Tablet OS</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>Windows NT 4.0</t>
+  </si>
+  <si>
+    <t>Symbian^3</t>
+  </si>
+  <si>
+    <t>Windows 98</t>
+  </si>
+  <si>
+    <t>Windows Vista</t>
+  </si>
+  <si>
+    <t>MeeGo</t>
+  </si>
+  <si>
     <t>Bada</t>
   </si>
   <si>
-    <t>BlackBerry OS</t>
-  </si>
-  <si>
-    <t>BlackBerry Tablet OS</t>
-  </si>
-  <si>
-    <t>BREW</t>
-  </si>
-  <si>
-    <t>CentOS</t>
-  </si>
-  <si>
-    <t>Chrome OS</t>
-  </si>
-  <si>
-    <t>Fedora</t>
-  </si>
-  <si>
-    <t>GoogleTV</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>Kindle</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Linux Mint</t>
+    <t>Nokia Series 40</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+  </si>
+  <si>
+    <t>Windows CE</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
   </si>
   <si>
     <t>Mac OS X</t>
   </si>
   <si>
-    <t>Mandriva</t>
-  </si>
-  <si>
-    <t>MeeGo</t>
-  </si>
-  <si>
-    <t>Nokia Series 40</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Red Hat</t>
-  </si>
-  <si>
-    <t>SUSE</t>
-  </si>
-  <si>
-    <t>Symbian OS</t>
-  </si>
-  <si>
-    <t>Symbian^3</t>
-  </si>
-  <si>
-    <t>Symbian^3 Anna</t>
-  </si>
-  <si>
-    <t>Symbian^3 Belle</t>
-  </si>
-  <si>
-    <t>Ubuntu</t>
-  </si>
-  <si>
-    <t>VRE</t>
-  </si>
-  <si>
-    <t>webOS</t>
-  </si>
-  <si>
-    <t>WeTab</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Windows 2000</t>
-  </si>
-  <si>
-    <t>Windows 7</t>
-  </si>
-  <si>
-    <t>Windows 8</t>
-  </si>
-  <si>
-    <t>Windows 98</t>
-  </si>
-  <si>
-    <t>Windows CE</t>
-  </si>
-  <si>
-    <t>Windows Mobile</t>
-  </si>
-  <si>
-    <t>Windows NT 4.0</t>
-  </si>
-  <si>
     <t>Windows Phone</t>
-  </si>
-  <si>
-    <t>Windows RT</t>
-  </si>
-  <si>
-    <t>Windows Vista</t>
-  </si>
-  <si>
-    <t>Windows XP</t>
   </si>
 </sst>
 </file>
@@ -155,6 +119,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,12 +179,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -253,32 +222,32 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="2" t="n">
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+      <c r="A3" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -286,299 +255,203 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+      <c r="A5" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
+      <c r="A6" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+      <c r="A7" s="2" t="n">
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
+      <c r="A8" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
+      <c r="A9" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+      <c r="A10" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
+      <c r="A11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
+      <c r="A12" s="2" t="n">
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
+      <c r="A13" s="2" t="n">
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
+      <c r="A14" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
+      <c r="A15" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
+      <c r="A16" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
+      <c r="A17" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
+      <c r="A18" s="2" t="n">
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
+      <c r="A19" s="2" t="n">
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
+      <c r="A20" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
+      <c r="A21" s="2" t="n">
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
+      <c r="A22" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
+      <c r="A23" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
+      <c r="A24" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
+      <c r="A25" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
+      <c r="A26" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
+      <c r="A27" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
+      <c r="A28" s="2" t="n">
+        <v>14</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
+      <c r="A29" s="2" t="n">
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData/DimOS.xlsx
+++ b/SampleData/DimOS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -23,88 +23,124 @@
     <t>OS_NAME</t>
   </si>
   <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Bada</t>
+  </si>
+  <si>
+    <t>BlackBerry OS</t>
+  </si>
+  <si>
+    <t>BlackBerry Tablet OS</t>
+  </si>
+  <si>
+    <t>BREW</t>
+  </si>
+  <si>
+    <t>CentOS</t>
+  </si>
+  <si>
+    <t>Chrome OS</t>
+  </si>
+  <si>
+    <t>Fedora</t>
+  </si>
+  <si>
+    <t>GoogleTV</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Linux Mint</t>
+  </si>
+  <si>
+    <t>Mac OS X</t>
+  </si>
+  <si>
+    <t>Mandriva</t>
+  </si>
+  <si>
+    <t>MeeGo</t>
+  </si>
+  <si>
+    <t>Nokia Series 40</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Red Hat</t>
+  </si>
+  <si>
+    <t>SUSE</t>
+  </si>
+  <si>
+    <t>Symbian OS</t>
+  </si>
+  <si>
+    <t>Symbian^3</t>
+  </si>
+  <si>
     <t>Symbian^3 Anna</t>
   </si>
   <si>
+    <t>Symbian^3 Belle</t>
+  </si>
+  <si>
+    <t>Ubuntu</t>
+  </si>
+  <si>
+    <t>VRE</t>
+  </si>
+  <si>
+    <t>webOS</t>
+  </si>
+  <si>
+    <t>WeTab</t>
+  </si>
+  <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>BlackBerry OS</t>
+    <t>Windows 2000</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
   </si>
   <si>
     <t>Windows 8</t>
   </si>
   <si>
-    <t>Linux</t>
+    <t>Windows 98</t>
+  </si>
+  <si>
+    <t>Windows CE</t>
   </si>
   <si>
     <t>Windows Mobile</t>
   </si>
   <si>
-    <t>Symbian OS</t>
-  </si>
-  <si>
-    <t>webOS</t>
+    <t>Windows NT 4.0</t>
+  </si>
+  <si>
+    <t>Windows Phone</t>
   </si>
   <si>
     <t>Windows RT</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Symbian^3 Belle</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Windows 2000</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>BlackBerry Tablet OS</t>
-  </si>
-  <si>
-    <t>Ubuntu</t>
-  </si>
-  <si>
-    <t>Windows NT 4.0</t>
-  </si>
-  <si>
-    <t>Symbian^3</t>
-  </si>
-  <si>
-    <t>Windows 98</t>
-  </si>
-  <si>
     <t>Windows Vista</t>
   </si>
   <si>
-    <t>MeeGo</t>
-  </si>
-  <si>
-    <t>Bada</t>
-  </si>
-  <si>
-    <t>Nokia Series 40</t>
-  </si>
-  <si>
-    <t>Windows 7</t>
-  </si>
-  <si>
-    <t>Windows CE</t>
-  </si>
-  <si>
     <t>Windows XP</t>
-  </si>
-  <si>
-    <t>Mac OS X</t>
-  </si>
-  <si>
-    <t>Windows Phone</t>
   </si>
 </sst>
 </file>
@@ -209,10 +245,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -232,7 +268,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -240,7 +276,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -256,7 +292,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -264,7 +300,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -272,7 +308,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>7</v>
@@ -280,7 +316,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>8</v>
@@ -288,7 +324,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -296,7 +332,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -304,7 +340,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>11</v>
@@ -312,7 +348,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
@@ -320,7 +356,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
@@ -328,7 +364,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
@@ -336,7 +372,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
@@ -344,7 +380,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>16</v>
@@ -352,7 +388,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>17</v>
@@ -360,7 +396,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -368,7 +404,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>19</v>
@@ -376,7 +412,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>20</v>
@@ -384,7 +420,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>21</v>
@@ -392,7 +428,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>22</v>
@@ -400,7 +436,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>23</v>
@@ -408,7 +444,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>24</v>
@@ -416,7 +452,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>25</v>
@@ -424,7 +460,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
@@ -432,7 +468,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>27</v>
@@ -440,7 +476,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>28</v>
@@ -448,10 +484,106 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
